--- a/biology/Zoologie/Goodeidae/Goodeidae.xlsx
+++ b/biology/Zoologie/Goodeidae/Goodeidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Goodeidae sont une famille de poissons d'eau douce de l'ordre des Cyprinodontiformes, composée de 55 espèces réparties dans 18 genres différents[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Goodeidae sont une famille de poissons d'eau douce de l'ordre des Cyprinodontiformes, composée de 55 espèces réparties dans 18 genres différents.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de la sous-famille Goodeinae possèdent une fécondation interne et sont appelées vivipares. Les mâles possède les rayons antérieurs de la nageoire anale bondée, plus courts et en partie séparent le reste de la nageoire[1]. Probablement un gonopode primitif appelé pseudophallus. Les ovaires des femelles sont en partie fusionnées pour former un organe médian unique[1]. Les embryons et les nouveau-nés sont rattachés à leur mère avec des structures « ombilicales » ou dites « rubané » appelés trophotaeniae qui fonctionne comme un placenta[1]. Permettant un échange d’élément nutritif. Les Empetrichthyinae sont ovipares avec une fécondation externe. La forme du corps et les habitudes d'alimentation sont diversifiées. Cette famille atteint des tailles maximales d’environ 20 cm de longueur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de la sous-famille Goodeinae possèdent une fécondation interne et sont appelées vivipares. Les mâles possède les rayons antérieurs de la nageoire anale bondée, plus courts et en partie séparent le reste de la nageoire. Probablement un gonopode primitif appelé pseudophallus. Les ovaires des femelles sont en partie fusionnées pour former un organe médian unique. Les embryons et les nouveau-nés sont rattachés à leur mère avec des structures « ombilicales » ou dites « rubané » appelés trophotaeniae qui fonctionne comme un placenta. Permettant un échange d’élément nutritif. Les Empetrichthyinae sont ovipares avec une fécondation externe. La forme du corps et les habitudes d'alimentation sont diversifiées. Cette famille atteint des tailles maximales d’environ 20 cm de longueur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toutes ces espèces habitent une région du Mexique appelée « Mesa Centrale ». Les Goodeidae se rencontrent entre le Nevada et le centre-ouest du Mexique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes ces espèces habitent une région du Mexique appelée « Mesa Centrale ». Les Goodeidae se rencontrent entre le Nevada et le centre-ouest du Mexique.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>sous-famille Empetrichthyinae Jordan, Evermann et Clark, 1930
 genre Crenichthys Hubbs, 1932
@@ -622,9 +640,11 @@
           <t>Zoo et préservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Représentés dans des milieux diversifiés, mais parfois endémiques à de simples trou d'eau, les Goodéidae sont menacés par la pression anthropique comme la destruction des cours d'eau, la pollution des villes, l'introduction d'espèces exogènes ou encore l'agriculture. L'Aquarium du palais de la Porte Dorée à Paris participe au programme de conservation et de sauvegarde des Goodeidae[2], par le biais notamment de la connaissance et du développement dans les meilleures conditions des espèces de Goodeidae et ce en collaboration avec des organismes tels que des zoos, des universités, des laboratoires, des associations et des aquariophiles. C'est à ce titre que l'Aquarium participe au groupe "Goodeid Working Group" (GWG)[3] en maintenant quelques espèces de cette famille de poissons.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Représentés dans des milieux diversifiés, mais parfois endémiques à de simples trou d'eau, les Goodéidae sont menacés par la pression anthropique comme la destruction des cours d'eau, la pollution des villes, l'introduction d'espèces exogènes ou encore l'agriculture. L'Aquarium du palais de la Porte Dorée à Paris participe au programme de conservation et de sauvegarde des Goodeidae, par le biais notamment de la connaissance et du développement dans les meilleures conditions des espèces de Goodeidae et ce en collaboration avec des organismes tels que des zoos, des universités, des laboratoires, des associations et des aquariophiles. C'est à ce titre que l'Aquarium participe au groupe "Goodeid Working Group" (GWG) en maintenant quelques espèces de cette famille de poissons.
 </t>
         </is>
       </c>
